--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4354674.525688129</v>
+        <v>4352794.3459178</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>193.4171325760649</v>
       </c>
       <c r="U2" t="n">
-        <v>133.9963273159767</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>186.1118990003845</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>341.2578399936068</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>213.9154470216035</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.8243835520301</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>215.6927484323853</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417095</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.68762643336689</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750029</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>37.63559668982739</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056531</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>49.75377031702955</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
         <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>238.7113962579905</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>207.5440020263834</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>111.4522747958123</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>70.417613685521</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F25" t="n">
-        <v>70.41761368552123</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>210.5069097326778</v>
@@ -2533,16 +2533,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>7.018598297944024</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368551991</v>
+        <v>43.83392402588436</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981167</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108797</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368551963</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.196701072866</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981167</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108797</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.60751101925936</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.2891578932899</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463091</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1721.819089287443</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1721.819089287443</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2270.572072876962</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.958421263255</v>
+        <v>2016.810287515053</v>
       </c>
       <c r="V2" t="n">
-        <v>2111.958421263255</v>
+        <v>1685.747400171482</v>
       </c>
       <c r="W2" t="n">
-        <v>2111.958421263255</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2111.958421263255</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1721.819089287443</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1341.294330781294</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>972.3318138408822</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>614.0661152341316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2454.12858437661</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2454.12858437661</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2454.12858437661</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2101.359929106496</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1727.894170845416</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1727.894170845416</v>
+        <v>1317.778685247039</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T7" t="n">
-        <v>512.0527750937034</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U7" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V7" t="n">
-        <v>222.8791647482714</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W7" t="n">
-        <v>222.8791647482714</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>222.8791647482714</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,55 +5036,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028583</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028583</v>
+        <v>110.032875736414</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,19 +5270,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277035</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L15" t="n">
-        <v>901.6749225845924</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.857683528587</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2413.343925613456</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471197</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473456</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262962</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765201</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706333</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336729</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5525,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>582.1916992613353</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.4734251138511</v>
+        <v>390.7388757735548</v>
       </c>
       <c r="C19" t="n">
-        <v>147.4734251138511</v>
+        <v>232.954865901922</v>
       </c>
       <c r="D19" t="n">
-        <v>147.4734251138511</v>
+        <v>232.954865901922</v>
       </c>
       <c r="E19" t="n">
-        <v>147.4734251138511</v>
+        <v>232.954865901922</v>
       </c>
       <c r="F19" t="n">
-        <v>147.4734251138511</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>147.4734251138511</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>147.4734251138511</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>120.5300287366501</v>
@@ -5677,46 +5677,46 @@
         <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
-        <v>1536.594541272927</v>
+        <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1586.358229057537</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1373.724986903317</v>
+        <v>1085.034219493242</v>
       </c>
       <c r="U19" t="n">
-        <v>1095.748521173149</v>
+        <v>843.9115970104234</v>
       </c>
       <c r="V19" t="n">
-        <v>852.2162060235366</v>
+        <v>600.3792818608107</v>
       </c>
       <c r="W19" t="n">
-        <v>573.9512090428502</v>
+        <v>600.3792818608107</v>
       </c>
       <c r="X19" t="n">
-        <v>357.113831201107</v>
+        <v>600.3792818608107</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.4734251138511</v>
+        <v>390.7388757735548</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,64 +5738,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729333</v>
+        <v>209.7951468095914</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3459941729333</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449756</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953629</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146765</v>
+        <v>806.7692225125562</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729333</v>
+        <v>589.931844670813</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729333</v>
+        <v>380.291438583557</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,34 +6005,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.3459941729336</v>
+        <v>391.7620218580375</v>
       </c>
       <c r="C25" t="n">
-        <v>168.3459941729336</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D25" t="n">
-        <v>168.3459941729336</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E25" t="n">
-        <v>168.3459941729336</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969366</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N25" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
         <v>1536.594541272927</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029363</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.957149875143</v>
+        <v>1273.802056521416</v>
       </c>
       <c r="U25" t="n">
-        <v>906.9806841449758</v>
+        <v>995.8255907912487</v>
       </c>
       <c r="V25" t="n">
-        <v>663.4483689953631</v>
+        <v>988.7360975610022</v>
       </c>
       <c r="W25" t="n">
-        <v>385.1833720146767</v>
+        <v>988.7360975610022</v>
       </c>
       <c r="X25" t="n">
-        <v>168.3459941729336</v>
+        <v>771.898719719259</v>
       </c>
       <c r="Y25" t="n">
-        <v>168.3459941729336</v>
+        <v>562.2583136320031</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,13 +6224,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729321</v>
+        <v>419.7240841473667</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729321</v>
+        <v>419.7240841473667</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729321</v>
+        <v>280.7596177913051</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729321</v>
+        <v>280.7596177913051</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>236.4829268560684</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028586</v>
@@ -6385,13 +6385,13 @@
         <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172992</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
@@ -6400,34 +6400,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875142</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449747</v>
+        <v>807.0577537630754</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953619</v>
+        <v>807.0577537630754</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146753</v>
+        <v>807.0577537630754</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729321</v>
+        <v>590.2203759213322</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729321</v>
+        <v>590.2203759213322</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6549,16 +6549,16 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729319</v>
+        <v>233.978011986405</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729319</v>
+        <v>233.978011986405</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729319</v>
+        <v>233.978011986405</v>
       </c>
       <c r="E31" t="n">
-        <v>168.3459941729319</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028587</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366499</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937156</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M31" t="n">
-        <v>822.784955196936</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
@@ -6637,34 +6637,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029362</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875142</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449745</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953616</v>
+        <v>776.1586807676824</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146751</v>
+        <v>497.8936837869959</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729319</v>
+        <v>281.0563059452528</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729319</v>
+        <v>233.978011986405</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.614441745106</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
         <v>478.0475988506726</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649698</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802517</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7500,16 +7500,16 @@
         <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,25 +7552,25 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
@@ -7646,16 +7646,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,7 +7807,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>165.9802687929768</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.1147370139967</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.3400780863219</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>171.2966883299267</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>94.13752431970582</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>18.73797368291349</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>169.2863157167187</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>167.1443537485704</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338638</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.913828367536</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>248.8874016467636</v>
       </c>
       <c r="X16" t="n">
-        <v>82.393833183384</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>137.5748216925009</v>
@@ -23899,7 +23899,7 @@
         <v>135.3933113208577</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>49.62482382153102</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>36.48530481487549</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>44.75389497710412</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>67.45556335630367</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.7913288562258</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>137.5748216925009</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>63.96278301169856</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376661</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856053</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808134</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>234.0783937001725</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.791328856226</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>63.9627830117</v>
+        <v>90.54647267133547</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418248</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856064</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808144</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263835</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.791328856226</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729165</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301170028</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418248</v>
+        <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856064</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808145</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263835</v>
+        <v>160.936491007124</v>
       </c>
     </row>
     <row r="32">
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605539.3888196951</v>
+        <v>605539.388819695</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>605539.3888196952</v>
+        <v>605539.3888196951</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
@@ -26320,40 +26320,40 @@
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
-        <v>788375.3505184433</v>
+        <v>788375.3505184437</v>
       </c>
       <c r="H2" t="n">
+        <v>788375.3505184436</v>
+      </c>
+      <c r="I2" t="n">
+        <v>788375.3505184434</v>
+      </c>
+      <c r="J2" t="n">
+        <v>788375.3505184437</v>
+      </c>
+      <c r="K2" t="n">
         <v>788375.3505184435</v>
       </c>
-      <c r="I2" t="n">
-        <v>788375.3505184435</v>
-      </c>
-      <c r="J2" t="n">
-        <v>788375.3505184433</v>
-      </c>
-      <c r="K2" t="n">
-        <v>788375.3505184434</v>
-      </c>
       <c r="L2" t="n">
+        <v>821041.7698642844</v>
+      </c>
+      <c r="M2" t="n">
+        <v>821041.7698642844</v>
+      </c>
+      <c r="N2" t="n">
         <v>821041.7698642843</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642843</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642845</v>
       </c>
       <c r="O2" t="n">
         <v>821041.7698642843</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>5.796129016744089e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060568879</v>
+        <v>8832.521060569139</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>54505.51210371252</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143922</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="G4" t="n">
-        <v>18678.59412427836</v>
+        <v>18678.59412427846</v>
       </c>
       <c r="H4" t="n">
-        <v>18678.59412427839</v>
+        <v>18678.5941242784</v>
       </c>
       <c r="I4" t="n">
         <v>18678.59412427842</v>
       </c>
       <c r="J4" t="n">
-        <v>18678.5941242784</v>
+        <v>18678.59412427842</v>
       </c>
       <c r="K4" t="n">
-        <v>18678.59412427838</v>
+        <v>18678.59412427841</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275953</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275958</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>92915.50246501784</v>
+      </c>
+      <c r="H5" t="n">
+        <v>92915.50246501785</v>
+      </c>
+      <c r="I5" t="n">
         <v>92915.50246501787</v>
       </c>
-      <c r="H5" t="n">
-        <v>92915.50246501788</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92915.50246501788</v>
-      </c>
       <c r="J5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.145664893265</v>
+        <v>-8560.145664893469</v>
       </c>
       <c r="C6" t="n">
         <v>581407.733549651</v>
@@ -26528,40 +26528,40 @@
         <v>581407.733549651</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283663</v>
+        <v>149767.6283023936</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052616</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="G6" t="n">
-        <v>667948.7328685782</v>
+        <v>667867.0668202137</v>
       </c>
       <c r="H6" t="n">
-        <v>676781.2539291473</v>
+        <v>676699.5878807828</v>
       </c>
       <c r="I6" t="n">
-        <v>676781.2539291473</v>
+        <v>676699.5878807826</v>
       </c>
       <c r="J6" t="n">
-        <v>500358.0347365541</v>
+        <v>500276.36868819</v>
       </c>
       <c r="K6" t="n">
-        <v>676781.2539291471</v>
+        <v>676699.5878807827</v>
       </c>
       <c r="L6" t="n">
-        <v>631356.6950777868</v>
+        <v>631356.6950777869</v>
       </c>
       <c r="M6" t="n">
-        <v>551061.1919476622</v>
+        <v>551061.1919476623</v>
       </c>
       <c r="N6" t="n">
-        <v>685862.2071814996</v>
+        <v>685862.2071814992</v>
       </c>
       <c r="O6" t="n">
         <v>685862.2071814993</v>
       </c>
       <c r="P6" t="n">
-        <v>685862.2071814996</v>
+        <v>685862.2071814995</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,16 +26914,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571132</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,16 +27151,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571132</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>23.03118778159291</v>
       </c>
       <c r="U2" t="n">
-        <v>117.2278401923126</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27585,13 +27585,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>30.33642135727328</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>28.47326068486228</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,22 +27825,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>11.11965843648079</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>62.6986147845609</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.928873612557473e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,16 +28138,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="26">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571135</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571133</v>
+        <v>11.04065132571142</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,13 +30235,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>499.1748421909896</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>616.5391140644629</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.353110871396</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556566</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>321.8721269178658</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
         <v>261.2548382056399</v>
@@ -36054,13 +36054,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P22" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127698</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127688</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
         <v>261.2548382056399</v>
@@ -36765,13 +36765,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758611</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,19 +36917,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127687</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
         <v>261.2548382056399</v>
@@ -37002,13 +37002,13 @@
         <v>284.317529131315</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.2663512975861</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>182.1505571047799</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>267.9956786389378</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>502.4808891147315</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,16 +38017,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
